--- a/Test/MultiPSO/Explore150Exploit200/ALLCONError_200.xlsx
+++ b/Test/MultiPSO/Explore150Exploit200/ALLCONError_200.xlsx
@@ -423,34 +423,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.002291773581580273</v>
+        <v>0.006125353721396854</v>
       </c>
       <c r="B1" t="n">
-        <v>0.0005424858252671972</v>
+        <v>0.001411713925920806</v>
       </c>
       <c r="C1" t="n">
-        <v>0.0006005753584063747</v>
+        <v>0.0003989259219013322</v>
       </c>
       <c r="D1" t="n">
-        <v>0.001000471228732175</v>
+        <v>0.0007542417841161375</v>
       </c>
       <c r="E1" t="n">
-        <v>0.00141907473868204</v>
+        <v>0.0002711013587647126</v>
       </c>
       <c r="F1" t="n">
-        <v>0.004678111171195928</v>
+        <v>0.0003525666235030806</v>
       </c>
       <c r="G1" t="n">
-        <v>0.0005700310697600519</v>
+        <v>0.0004248788950987362</v>
       </c>
       <c r="H1" t="n">
-        <v>0.002781796370118837</v>
+        <v>0.001174507205231807</v>
       </c>
       <c r="I1" t="n">
-        <v>0.0004660347297275117</v>
+        <v>0.0001060468674437304</v>
       </c>
       <c r="J1" t="n">
-        <v>0.001085227158884416</v>
+        <v>0.005715425241540251</v>
       </c>
     </row>
   </sheetData>
